--- a/excel-reader/testdata/test.xlsx
+++ b/excel-reader/testdata/test.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Хортиця" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,21 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">metric</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d2</t>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">горілка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">настоянка</t>
   </si>
 </sst>
 </file>
@@ -241,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,27 +262,38 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">B2*C2</f>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>12</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+      <c r="C3" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">B3*C3</f>
+        <v>39.36</v>
       </c>
     </row>
   </sheetData>
